--- a/Cálculo Grupo A.xlsx
+++ b/Cálculo Grupo A.xlsx
@@ -549,7 +549,7 @@
         <v>28</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
         <v>2.255989705330274</v>
@@ -570,10 +570,10 @@
         <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>253.2218704905835</v>
+        <v>250.6885371572501</v>
       </c>
       <c r="N2" t="n">
-        <v>329.1884316377585</v>
+        <v>325.8950983044252</v>
       </c>
       <c r="O2" t="n">
         <v>32</v>
@@ -582,13 +582,13 @@
         <v>19.25536913407959</v>
       </c>
       <c r="Q2" t="n">
-        <v>17.07080703645657</v>
+        <v>17.24331609882838</v>
       </c>
       <c r="R2" t="n">
-        <v>54.86473860629308</v>
+        <v>54.3158497174042</v>
       </c>
       <c r="S2" t="n">
-        <v>29.28976930804708</v>
+        <v>28.99674268767672</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo A.xlsx
+++ b/Cálculo Grupo A.xlsx
@@ -552,7 +552,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>2.255989705330274</v>
+        <v>2.755054494355548</v>
       </c>
       <c r="H2" t="n">
         <v>98</v>
@@ -570,25 +570,25 @@
         <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>250.6885371572501</v>
+        <v>179.891100453281</v>
       </c>
       <c r="N2" t="n">
-        <v>325.8950983044252</v>
+        <v>233.8584305892653</v>
       </c>
       <c r="O2" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="P2" t="n">
-        <v>19.25536913407959</v>
+        <v>12.91117265129122</v>
       </c>
       <c r="Q2" t="n">
-        <v>17.24331609882838</v>
+        <v>12.76569694809015</v>
       </c>
       <c r="R2" t="n">
-        <v>54.3158497174042</v>
+        <v>38.97640509821088</v>
       </c>
       <c r="S2" t="n">
-        <v>28.99674268767672</v>
+        <v>39.16746590751583</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo A.xlsx
+++ b/Cálculo Grupo A.xlsx
@@ -552,7 +552,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>2.755054494355548</v>
+        <v>2.816687356836673</v>
       </c>
       <c r="H2" t="n">
         <v>98</v>
@@ -570,25 +570,25 @@
         <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>179.891100453281</v>
+        <v>174.1269800853441</v>
       </c>
       <c r="N2" t="n">
-        <v>233.8584305892653</v>
+        <v>226.3650741109473</v>
       </c>
       <c r="O2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P2" t="n">
-        <v>12.91117265129122</v>
+        <v>12.35232719393164</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.76569694809015</v>
+        <v>12.41249829990929</v>
       </c>
       <c r="R2" t="n">
-        <v>38.97640509821088</v>
+        <v>37.72751235182456</v>
       </c>
       <c r="S2" t="n">
-        <v>39.16746590751583</v>
+        <v>40.28197933397935</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo A.xlsx
+++ b/Cálculo Grupo A.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,90 +441,95 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Ascensores</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Zona expresa</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Pisos Servidos</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Pisos no servidos</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Pisos totales</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Velocidad Nominal</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Ref. Vel. Nominal</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Recorrido superior</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Recorrido expreso</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Recorrido superior servido</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Tiempo de apertura y cierre</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Tiempo de entrada y salida</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Tiempo de Viaje Completo</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Tiempo Total de viaje</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Personas por viaje</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Paradas Probables</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>C (&gt;12)</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>I (&lt;40)</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Tiempo de llenado</t>
         </is>
@@ -536,58 +541,61 @@
           <t>Grupo A</t>
         </is>
       </c>
-      <c r="B2" t="b">
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>28</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>28</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>10</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>2.816687356836673</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>98</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>98</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>3.95</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>2</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>174.1269800853441</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>226.3650741109473</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>16</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>12.35232719393164</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>12.41249829990929</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>37.72751235182456</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>40.28197933397935</v>
       </c>
     </row>

--- a/Cálculo Grupo A.xlsx
+++ b/Cálculo Grupo A.xlsx
@@ -542,34 +542,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>2.816687356836673</v>
+        <v>3.226895573121636</v>
       </c>
       <c r="I2" t="n">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="L2" t="n">
         <v>3.95</v>
@@ -578,25 +578,25 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>174.1269800853441</v>
+        <v>209.5220435123271</v>
       </c>
       <c r="O2" t="n">
-        <v>226.3650741109473</v>
+        <v>272.3786565660251</v>
       </c>
       <c r="P2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.35232719393164</v>
+        <v>14.11716569929044</v>
       </c>
       <c r="R2" t="n">
-        <v>12.41249829990929</v>
+        <v>12.35903237097933</v>
       </c>
       <c r="S2" t="n">
-        <v>37.72751235182456</v>
+        <v>27.23786565660252</v>
       </c>
       <c r="T2" t="n">
-        <v>40.28197933397935</v>
+        <v>40.45624163701256</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo A.xlsx
+++ b/Cálculo Grupo A.xlsx
@@ -560,7 +560,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>3.226895573121636</v>
+        <v>3.153596547503946</v>
       </c>
       <c r="I2" t="n">
         <v>147</v>
@@ -578,25 +578,25 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>209.5220435123271</v>
+        <v>216.2620091856177</v>
       </c>
       <c r="O2" t="n">
-        <v>272.3786565660251</v>
+        <v>281.140611941303</v>
       </c>
       <c r="P2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q2" t="n">
-        <v>14.11716569929044</v>
+        <v>14.78104270645019</v>
       </c>
       <c r="R2" t="n">
-        <v>12.35903237097933</v>
+        <v>12.67819832585318</v>
       </c>
       <c r="S2" t="n">
-        <v>27.23786565660252</v>
+        <v>28.11406119413029</v>
       </c>
       <c r="T2" t="n">
-        <v>40.45624163701256</v>
+        <v>39.43778028621055</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo A.xlsx
+++ b/Cálculo Grupo A.xlsx
@@ -545,7 +545,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>42</v>
@@ -563,7 +563,7 @@
         <v>3.153596547503946</v>
       </c>
       <c r="I2" t="n">
-        <v>147</v>
+        <v>294</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -578,10 +578,10 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>216.2620091856177</v>
+        <v>3630.895385206561</v>
       </c>
       <c r="O2" t="n">
-        <v>281.140611941303</v>
+        <v>4720.164000768529</v>
       </c>
       <c r="P2" t="n">
         <v>18</v>
@@ -590,13 +590,13 @@
         <v>14.78104270645019</v>
       </c>
       <c r="R2" t="n">
-        <v>12.67819832585318</v>
+        <v>0.7551340239583247</v>
       </c>
       <c r="S2" t="n">
-        <v>28.11406119413029</v>
+        <v>472.0164000768529</v>
       </c>
       <c r="T2" t="n">
-        <v>39.43778028621055</v>
+        <v>662.1341167744743</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo A.xlsx
+++ b/Cálculo Grupo A.xlsx
@@ -542,19 +542,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>42</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F2" t="n">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
@@ -563,10 +563,10 @@
         <v>3.153596547503946</v>
       </c>
       <c r="I2" t="n">
+        <v>588</v>
+      </c>
+      <c r="J2" t="n">
         <v>294</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>147</v>
@@ -578,10 +578,10 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>3630.895385206561</v>
+        <v>353.5888996807571</v>
       </c>
       <c r="O2" t="n">
-        <v>4720.164000768529</v>
+        <v>459.6655695849842</v>
       </c>
       <c r="P2" t="n">
         <v>18</v>
@@ -590,13 +590,13 @@
         <v>14.78104270645019</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7551340239583247</v>
+        <v>4.652543072384163</v>
       </c>
       <c r="S2" t="n">
-        <v>472.0164000768529</v>
+        <v>76.61092826416403</v>
       </c>
       <c r="T2" t="n">
-        <v>662.1341167744743</v>
+        <v>107.4681077038968</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo A.xlsx
+++ b/Cálculo Grupo A.xlsx
@@ -548,28 +548,28 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E2" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>3.153596547503946</v>
+        <v>2.699298650740721</v>
       </c>
       <c r="I2" t="n">
-        <v>588</v>
+        <v>98</v>
       </c>
       <c r="J2" t="n">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="L2" t="n">
         <v>3.95</v>
@@ -578,25 +578,25 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>353.5888996807571</v>
+        <v>185.4891884723456</v>
       </c>
       <c r="O2" t="n">
-        <v>459.6655695849842</v>
+        <v>241.1359450140493</v>
       </c>
       <c r="P2" t="n">
         <v>18</v>
       </c>
       <c r="Q2" t="n">
-        <v>14.78104270645019</v>
+        <v>13.45005934231654</v>
       </c>
       <c r="R2" t="n">
-        <v>4.652543072384163</v>
+        <v>13.10868692584148</v>
       </c>
       <c r="S2" t="n">
-        <v>76.61092826416403</v>
+        <v>40.18932416900822</v>
       </c>
       <c r="T2" t="n">
-        <v>107.4681077038968</v>
+        <v>38.14264562336427</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo A.xlsx
+++ b/Cálculo Grupo A.xlsx
@@ -560,7 +560,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>2.699298650740721</v>
+        <v>2.816687356836673</v>
       </c>
       <c r="I2" t="n">
         <v>98</v>
@@ -578,25 +578,25 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>185.4891884723456</v>
+        <v>174.1269800853441</v>
       </c>
       <c r="O2" t="n">
-        <v>241.1359450140493</v>
+        <v>226.3650741109473</v>
       </c>
       <c r="P2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q2" t="n">
-        <v>13.45005934231654</v>
+        <v>12.35232719393164</v>
       </c>
       <c r="R2" t="n">
-        <v>13.10868692584148</v>
+        <v>12.41249829990929</v>
       </c>
       <c r="S2" t="n">
-        <v>40.18932416900822</v>
+        <v>37.72751235182456</v>
       </c>
       <c r="T2" t="n">
-        <v>38.14264562336427</v>
+        <v>40.28197933397935</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo A.xlsx
+++ b/Cálculo Grupo A.xlsx
@@ -560,16 +560,16 @@
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>2.816687356836673</v>
+        <v>4.878645611078007</v>
       </c>
       <c r="I2" t="n">
-        <v>98</v>
+        <v>294</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>98</v>
+        <v>294</v>
       </c>
       <c r="L2" t="n">
         <v>3.95</v>
@@ -578,10 +578,10 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>174.1269800853441</v>
+        <v>244.6669461185782</v>
       </c>
       <c r="O2" t="n">
-        <v>226.3650741109473</v>
+        <v>318.0670299541516</v>
       </c>
       <c r="P2" t="n">
         <v>16</v>
@@ -590,13 +590,13 @@
         <v>12.35232719393164</v>
       </c>
       <c r="R2" t="n">
-        <v>12.41249829990929</v>
+        <v>8.833848946764439</v>
       </c>
       <c r="S2" t="n">
-        <v>37.72751235182456</v>
+        <v>53.01117165902527</v>
       </c>
       <c r="T2" t="n">
-        <v>40.28197933397935</v>
+        <v>56.6004697401051</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo A.xlsx
+++ b/Cálculo Grupo A.xlsx
@@ -548,28 +548,28 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>4.878645611078007</v>
+        <v>4.401895123160659</v>
       </c>
       <c r="I2" t="n">
-        <v>294</v>
+        <v>220.5</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>294</v>
+        <v>220.5</v>
       </c>
       <c r="L2" t="n">
         <v>3.95</v>
@@ -578,25 +578,25 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>244.6669461185782</v>
+        <v>213.1337716938197</v>
       </c>
       <c r="O2" t="n">
-        <v>318.0670299541516</v>
+        <v>277.0739032019657</v>
       </c>
       <c r="P2" t="n">
         <v>16</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.35232719393164</v>
+        <v>11.3796580381806</v>
       </c>
       <c r="R2" t="n">
-        <v>8.833848946764439</v>
+        <v>13.32607528041456</v>
       </c>
       <c r="S2" t="n">
-        <v>53.01117165902527</v>
+        <v>46.17898386699428</v>
       </c>
       <c r="T2" t="n">
-        <v>56.6004697401051</v>
+        <v>37.52042439193285</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo A.xlsx
+++ b/Cálculo Grupo A.xlsx
@@ -560,16 +560,16 @@
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>4.401895123160659</v>
+        <v>2.541435334301307</v>
       </c>
       <c r="I2" t="n">
-        <v>220.5</v>
+        <v>73.5</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>220.5</v>
+        <v>73.5</v>
       </c>
       <c r="L2" t="n">
         <v>3.95</v>
@@ -578,10 +578,10 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>213.1337716938197</v>
+        <v>156.0909793118095</v>
       </c>
       <c r="O2" t="n">
-        <v>277.0739032019657</v>
+        <v>202.9182731053524</v>
       </c>
       <c r="P2" t="n">
         <v>16</v>
@@ -590,13 +590,13 @@
         <v>11.3796580381806</v>
       </c>
       <c r="R2" t="n">
-        <v>13.32607528041456</v>
+        <v>18.19603348580981</v>
       </c>
       <c r="S2" t="n">
-        <v>46.17898386699428</v>
+        <v>33.81971218422539</v>
       </c>
       <c r="T2" t="n">
-        <v>37.52042439193285</v>
+        <v>27.47851614968313</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo A.xlsx
+++ b/Cálculo Grupo A.xlsx
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -590,13 +590,13 @@
         <v>11.3796580381806</v>
       </c>
       <c r="R2" t="n">
-        <v>18.19603348580981</v>
+        <v>9.098016742904907</v>
       </c>
       <c r="S2" t="n">
-        <v>33.81971218422539</v>
+        <v>67.63942436845079</v>
       </c>
       <c r="T2" t="n">
-        <v>27.47851614968313</v>
+        <v>54.95703229936626</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo A.xlsx
+++ b/Cálculo Grupo A.xlsx
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -560,7 +560,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>2.541435334301307</v>
+        <v>2.447087158721879</v>
       </c>
       <c r="I2" t="n">
         <v>73.5</v>
@@ -578,25 +578,25 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>156.0909793118095</v>
+        <v>165.8539814792445</v>
       </c>
       <c r="O2" t="n">
-        <v>202.9182731053524</v>
+        <v>215.6101759230178</v>
       </c>
       <c r="P2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q2" t="n">
-        <v>11.3796580381806</v>
+        <v>12.27406624778286</v>
       </c>
       <c r="R2" t="n">
-        <v>9.098016742904907</v>
+        <v>19.26553853993078</v>
       </c>
       <c r="S2" t="n">
-        <v>67.63942436845079</v>
+        <v>35.93502932050296</v>
       </c>
       <c r="T2" t="n">
-        <v>54.95703229936626</v>
+        <v>25.95307673147436</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo A.xlsx
+++ b/Cálculo Grupo A.xlsx
@@ -542,34 +542,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>2.447087158721879</v>
+        <v>2.179861398377956</v>
       </c>
       <c r="I2" t="n">
-        <v>73.5</v>
+        <v>49</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>73.5</v>
+        <v>49</v>
       </c>
       <c r="L2" t="n">
         <v>3.95</v>
@@ -578,25 +578,25 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>165.8539814792445</v>
+        <v>140.5389566313143</v>
       </c>
       <c r="O2" t="n">
-        <v>215.6101759230178</v>
+        <v>182.7006436207086</v>
       </c>
       <c r="P2" t="n">
         <v>18</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.27406624778286</v>
+        <v>10.31189110962486</v>
       </c>
       <c r="R2" t="n">
-        <v>19.26553853993078</v>
+        <v>27.62294030249702</v>
       </c>
       <c r="S2" t="n">
-        <v>35.93502932050296</v>
+        <v>36.54012872414172</v>
       </c>
       <c r="T2" t="n">
-        <v>25.95307673147436</v>
+        <v>18.10089709945909</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo A.xlsx
+++ b/Cálculo Grupo A.xlsx
@@ -542,34 +542,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>2.179861398377956</v>
+        <v>2.699298650740721</v>
       </c>
       <c r="I2" t="n">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="L2" t="n">
         <v>3.95</v>
@@ -578,25 +578,25 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>140.5389566313143</v>
+        <v>185.4891884723456</v>
       </c>
       <c r="O2" t="n">
-        <v>182.7006436207086</v>
+        <v>241.1359450140493</v>
       </c>
       <c r="P2" t="n">
         <v>18</v>
       </c>
       <c r="Q2" t="n">
-        <v>10.31189110962486</v>
+        <v>13.45005934231654</v>
       </c>
       <c r="R2" t="n">
-        <v>27.62294030249702</v>
+        <v>13.10868692584148</v>
       </c>
       <c r="S2" t="n">
-        <v>36.54012872414172</v>
+        <v>40.18932416900822</v>
       </c>
       <c r="T2" t="n">
-        <v>18.10089709945909</v>
+        <v>38.14264562336427</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo A.xlsx
+++ b/Cálculo Grupo A.xlsx
@@ -560,16 +560,16 @@
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>2.699298650740721</v>
+        <v>4.878645611078007</v>
       </c>
       <c r="I2" t="n">
-        <v>98</v>
+        <v>294</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>98</v>
+        <v>294</v>
       </c>
       <c r="L2" t="n">
         <v>3.95</v>
@@ -578,25 +578,25 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>185.4891884723456</v>
+        <v>244.6669461185782</v>
       </c>
       <c r="O2" t="n">
-        <v>241.1359450140493</v>
+        <v>318.0670299541516</v>
       </c>
       <c r="P2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q2" t="n">
-        <v>13.45005934231654</v>
+        <v>12.35232719393164</v>
       </c>
       <c r="R2" t="n">
-        <v>13.10868692584148</v>
+        <v>8.833848946764439</v>
       </c>
       <c r="S2" t="n">
-        <v>40.18932416900822</v>
+        <v>53.01117165902527</v>
       </c>
       <c r="T2" t="n">
-        <v>38.14264562336427</v>
+        <v>56.6004697401051</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo A.xlsx
+++ b/Cálculo Grupo A.xlsx
@@ -560,16 +560,16 @@
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>4.878645611078007</v>
+        <v>2.816687356836673</v>
       </c>
       <c r="I2" t="n">
-        <v>294</v>
+        <v>98</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>294</v>
+        <v>98</v>
       </c>
       <c r="L2" t="n">
         <v>3.95</v>
@@ -578,10 +578,10 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>244.6669461185782</v>
+        <v>174.1269800853441</v>
       </c>
       <c r="O2" t="n">
-        <v>318.0670299541516</v>
+        <v>226.3650741109473</v>
       </c>
       <c r="P2" t="n">
         <v>16</v>
@@ -590,13 +590,13 @@
         <v>12.35232719393164</v>
       </c>
       <c r="R2" t="n">
-        <v>8.833848946764439</v>
+        <v>12.41249829990929</v>
       </c>
       <c r="S2" t="n">
-        <v>53.01117165902527</v>
+        <v>37.72751235182456</v>
       </c>
       <c r="T2" t="n">
-        <v>56.6004697401051</v>
+        <v>40.28197933397935</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo A.xlsx
+++ b/Cálculo Grupo A.xlsx
@@ -572,16 +572,16 @@
         <v>98</v>
       </c>
       <c r="L2" t="n">
-        <v>3.95</v>
+        <v>4.11</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="N2" t="n">
-        <v>174.1269800853441</v>
+        <v>174.6633524363732</v>
       </c>
       <c r="O2" t="n">
-        <v>226.3650741109473</v>
+        <v>227.0623581672851</v>
       </c>
       <c r="P2" t="n">
         <v>16</v>
@@ -590,13 +590,13 @@
         <v>12.35232719393164</v>
       </c>
       <c r="R2" t="n">
-        <v>12.41249829990929</v>
+        <v>12.37438085396315</v>
       </c>
       <c r="S2" t="n">
-        <v>37.72751235182456</v>
+        <v>37.84372636121419</v>
       </c>
       <c r="T2" t="n">
-        <v>40.28197933397935</v>
+        <v>40.40606200025474</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo A.xlsx
+++ b/Cálculo Grupo A.xlsx
@@ -548,28 +548,28 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>2.816687356836673</v>
+        <v>2.791060038433668</v>
       </c>
       <c r="I2" t="n">
-        <v>98</v>
+        <v>101.5</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>98</v>
+        <v>101.5</v>
       </c>
       <c r="L2" t="n">
         <v>4.11</v>
@@ -578,25 +578,25 @@
         <v>1.9</v>
       </c>
       <c r="N2" t="n">
-        <v>174.6633524363732</v>
+        <v>182.8434595406566</v>
       </c>
       <c r="O2" t="n">
-        <v>227.0623581672851</v>
+        <v>237.6964974028535</v>
       </c>
       <c r="P2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.35232719393164</v>
+        <v>13.02949803955314</v>
       </c>
       <c r="R2" t="n">
-        <v>12.37438085396315</v>
+        <v>12.14486744387144</v>
       </c>
       <c r="S2" t="n">
-        <v>37.84372636121419</v>
+        <v>39.61608290047559</v>
       </c>
       <c r="T2" t="n">
-        <v>40.40606200025474</v>
+        <v>41.16965477892561</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo A.xlsx
+++ b/Cálculo Grupo A.xlsx
@@ -548,55 +548,55 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>2.791060038433668</v>
+        <v>2.816687356836673</v>
       </c>
       <c r="I2" t="n">
-        <v>101.5</v>
+        <v>98</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>101.5</v>
+        <v>98</v>
       </c>
       <c r="L2" t="n">
-        <v>4.11</v>
+        <v>3.95</v>
       </c>
       <c r="M2" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>182.8434595406566</v>
+        <v>174.1269800853441</v>
       </c>
       <c r="O2" t="n">
-        <v>237.6964974028535</v>
+        <v>226.3650741109473</v>
       </c>
       <c r="P2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q2" t="n">
-        <v>13.02949803955314</v>
+        <v>12.35232719393164</v>
       </c>
       <c r="R2" t="n">
-        <v>12.14486744387144</v>
+        <v>12.41249829990929</v>
       </c>
       <c r="S2" t="n">
-        <v>39.61608290047559</v>
+        <v>37.72751235182456</v>
       </c>
       <c r="T2" t="n">
-        <v>41.16965477892561</v>
+        <v>40.28197933397935</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo A.xlsx
+++ b/Cálculo Grupo A.xlsx
@@ -548,28 +548,28 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>2.816687356836673</v>
+        <v>2.582129345047005</v>
       </c>
       <c r="I2" t="n">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="L2" t="n">
         <v>3.95</v>
@@ -578,25 +578,25 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>174.1269800853441</v>
+        <v>158.9082364920081</v>
       </c>
       <c r="O2" t="n">
-        <v>226.3650741109473</v>
+        <v>206.5807074396105</v>
       </c>
       <c r="P2" t="n">
         <v>16</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.35232719393164</v>
+        <v>11.54874357542757</v>
       </c>
       <c r="R2" t="n">
-        <v>12.41249829990929</v>
+        <v>17.10586808945534</v>
       </c>
       <c r="S2" t="n">
-        <v>37.72751235182456</v>
+        <v>34.43011790660176</v>
       </c>
       <c r="T2" t="n">
-        <v>40.28197933397935</v>
+        <v>29.22973551445878</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo A.xlsx
+++ b/Cálculo Grupo A.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,25 +511,30 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Capacidad Nominal</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Personas por viaje</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Paradas Probables</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>C (&gt;12)</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>I (&lt;40)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Tiempo de llenado</t>
         </is>
@@ -542,7 +547,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -572,31 +577,34 @@
         <v>77</v>
       </c>
       <c r="L2" t="n">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N2" t="n">
-        <v>158.9082364920081</v>
+        <v>152.069241631666</v>
       </c>
       <c r="O2" t="n">
-        <v>206.5807074396105</v>
+        <v>197.6900141211659</v>
       </c>
       <c r="P2" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q2" t="n">
         <v>16</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>11.54874357542757</v>
       </c>
-      <c r="R2" t="n">
-        <v>17.10586808945534</v>
-      </c>
       <c r="S2" t="n">
-        <v>34.43011790660176</v>
+        <v>14.8959738263195</v>
       </c>
       <c r="T2" t="n">
-        <v>29.22973551445878</v>
+        <v>39.53800282423317</v>
+      </c>
+      <c r="U2" t="n">
+        <v>33.56611698098962</v>
       </c>
     </row>
   </sheetData>
